--- a/data/trans_camb/P23_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.972145154567359</v>
+        <v>-7.333976344276551</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.652147581228448</v>
+        <v>-10.51587749842581</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-22.18401410150222</v>
+        <v>-22.67495030054639</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8532150143729551</v>
+        <v>-0.04526322656196295</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.709778161413162</v>
+        <v>-6.305440855772211</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-11.2615388225093</v>
+        <v>-10.57592647361886</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.50530626001611</v>
+        <v>-1.082396162722831</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.317409897648277</v>
+        <v>-6.957729437613203</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.08803894804826</v>
+        <v>-14.5331428364291</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.307215843515335</v>
+        <v>9.283602848238537</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.4179883931481</v>
+        <v>5.833385069315879</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-6.527370289218998</v>
+        <v>-5.787471940272566</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.61504345741431</v>
+        <v>16.20430596777743</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.096177698619568</v>
+        <v>8.288987213932089</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.186189101551165</v>
+        <v>2.511704333569749</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.23715839385588</v>
+        <v>10.54765584857337</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.029487309160228</v>
+        <v>4.780565424790457</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.844846960622798</v>
+        <v>-4.253522899915001</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1838065884252029</v>
+        <v>-0.1791907370329652</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2381044341447907</v>
+        <v>-0.2472358121574443</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5270470697333218</v>
+        <v>-0.5264516371494018</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02835150668163845</v>
+        <v>-0.002959418019126317</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2356887098188846</v>
+        <v>-0.2270305762157139</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3821056451767649</v>
+        <v>-0.3614652010373727</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04180304970572907</v>
+        <v>-0.03180606523779902</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1813557794953161</v>
+        <v>-0.196927710865663</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4134758795953143</v>
+        <v>-0.4171157794402365</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2792234626698032</v>
+        <v>0.2749331354583954</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1883234259081256</v>
+        <v>0.1726409577557282</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1856763450906524</v>
+        <v>-0.175959364204107</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7932015852991927</v>
+        <v>0.7632445935701495</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3897656094273651</v>
+        <v>0.3975615482589113</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1028535764904528</v>
+        <v>0.1218151405712261</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3570845696735823</v>
+        <v>0.3692296932128132</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1763305352683592</v>
+        <v>0.1700310149120045</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1322067836926523</v>
+        <v>-0.1493997219874545</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>5.155684896792712</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-6.777637601170494</v>
+        <v>-6.777637601170497</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.689424566058483</v>
+        <v>-2.62111502194803</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5367879194322105</v>
+        <v>-1.012469175173254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.11508004377337</v>
+        <v>-17.54728733560616</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.04879510130468286</v>
+        <v>-0.2169762443262082</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8577380855134598</v>
+        <v>-0.7942184784516905</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.496941395226088</v>
+        <v>-8.53458340656679</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09163719432694949</v>
+        <v>0.01659634535696591</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5862337634151416</v>
+        <v>0.857454112549947</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-10.62840956517518</v>
+        <v>-10.65173631391848</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.64100895837299</v>
+        <v>9.792247039405575</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.92965427380582</v>
+        <v>11.61645669330951</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.310420857348847</v>
+        <v>-3.899614752494839</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.96012022564247</v>
+        <v>11.0349808303431</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.858628415511665</v>
+        <v>9.531318483604782</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.380847613990664</v>
+        <v>1.313028659520031</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.794071943246488</v>
+        <v>8.565040672803226</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.626537823302955</v>
+        <v>9.387188587214938</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.471968369340003</v>
+        <v>-2.959053697446996</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1774145477123939</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2332282778410697</v>
+        <v>-0.2332282778410698</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.06951224784324882</v>
+        <v>-0.06859731006379606</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01740756051626053</v>
+        <v>-0.02345778146623353</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.43912569428757</v>
+        <v>-0.4545153609144873</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.007380117388971079</v>
+        <v>9.799277562592683e-05</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03039770340017564</v>
+        <v>-0.03068373096312787</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3387957913869454</v>
+        <v>-0.3308762763277481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.003109655949899941</v>
+        <v>0.001188300145538512</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0180584750331143</v>
+        <v>0.0263257957514117</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3479052439638494</v>
+        <v>-0.3479016101261669</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3284458646990257</v>
+        <v>0.29232018353878</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.361576247137121</v>
+        <v>0.3546963561130849</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.09640626050909522</v>
+        <v>-0.1188747931714867</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5333497746132682</v>
+        <v>0.5772214334992514</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5019320130215151</v>
+        <v>0.4907304655384179</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06821317443319107</v>
+        <v>0.07259810547847717</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3332609078561386</v>
+        <v>0.3244947273887783</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3517108794503906</v>
+        <v>0.3481560127921993</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.08908216277550442</v>
+        <v>-0.1051546342905727</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.8789548236069</v>
+        <v>-11.95778906390783</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-19.821685568059</v>
+        <v>-19.9479146499379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-24.40591931938502</v>
+        <v>-25.06793780127643</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.776943410592336</v>
+        <v>-9.863092425919932</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.53190561563622</v>
+        <v>-10.80483683200707</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-16.35597259163798</v>
+        <v>-15.91795359465609</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-8.227137353295701</v>
+        <v>-8.718531592113427</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-12.47331717021857</v>
+        <v>-13.16870741013142</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-18.61689624983109</v>
+        <v>-18.43864523238477</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.823047053881276</v>
+        <v>3.661825622056874</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.138821626596817</v>
+        <v>-4.833881382871661</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-10.78897806313133</v>
+        <v>-10.30517415588206</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.648930668687067</v>
+        <v>4.276322024384236</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.723635055962952</v>
+        <v>2.745555748183317</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-4.111052159471202</v>
+        <v>-4.486295155799614</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.847068568180997</v>
+        <v>1.550226027019162</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.91063440684335</v>
+        <v>-2.977678803213195</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-9.002750328215162</v>
+        <v>-9.330962802720899</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.2311692106657375</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3924808098117024</v>
+        <v>-0.3924808098117025</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2473502858575953</v>
+        <v>-0.2552817186886083</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4267978557403754</v>
+        <v>-0.4345518645883242</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5300096327410125</v>
+        <v>-0.5338768271146374</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3104108486713134</v>
+        <v>-0.3246548666984276</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3323105709942026</v>
+        <v>-0.3419821730363271</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.501370327176227</v>
+        <v>-0.5009676339611578</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.222603642143662</v>
+        <v>-0.2262615187506489</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3275900890513435</v>
+        <v>-0.3445194786987942</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4874152245446777</v>
+        <v>-0.4904362744328216</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.07414664295045499</v>
+        <v>0.09477834618832019</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1341235825900216</v>
+        <v>-0.1330019556767462</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2727511005010566</v>
+        <v>-0.2656146566132483</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1739298464589285</v>
+        <v>0.1694959809466094</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1139746470381286</v>
+        <v>0.1054269281249143</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1728224330578392</v>
+        <v>-0.1769490822269326</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05396764295015209</v>
+        <v>0.05369197743962053</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.08914253764802375</v>
+        <v>-0.08881416557420582</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2730440771644312</v>
+        <v>-0.2829248766694409</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.665220243278354</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-7.498351094229372</v>
+        <v>-7.498351094229369</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-6.968227781160846</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-20.88826496497494</v>
+        <v>-20.64348079302807</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.46216558639663</v>
+        <v>-14.0253091262648</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-28.30272737429898</v>
+        <v>-27.68957142156028</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.021737154439585</v>
+        <v>-6.632314102669645</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.749804729725817</v>
+        <v>-5.290117239618759</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-13.209249159124</v>
+        <v>-13.19733341663176</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.69738088996679</v>
+        <v>-12.19497369163859</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-7.514956659062776</v>
+        <v>-8.581292319949267</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-18.73115892816662</v>
+        <v>-18.90505899447976</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-6.805683214995666</v>
+        <v>-6.312085205890529</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1594410159851033</v>
+        <v>0.2685274149423176</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-11.82983777306516</v>
+        <v>-11.55060043354765</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.210146875638243</v>
+        <v>5.960425957599719</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.489235048396118</v>
+        <v>8.361614109279056</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.044605592041747</v>
+        <v>-1.388687130640806</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-2.04202492015953</v>
+        <v>-2.616238706477232</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.889796853512835</v>
+        <v>1.789084655270373</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-8.891038863477331</v>
+        <v>-9.041971226784657</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.06281399786149595</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2828463150738543</v>
+        <v>-0.2828463150738542</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1956844360946661</v>
@@ -1411,7 +1411,7 @@
         <v>-0.07857033186520147</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3897030474789798</v>
+        <v>-0.3897030474789799</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4412512194816073</v>
+        <v>-0.4350485836425769</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2967606031031452</v>
+        <v>-0.2941635948768929</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5890342491347199</v>
+        <v>-0.58354222768219</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2340109441337071</v>
+        <v>-0.224179373145838</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1596412892591849</v>
+        <v>-0.16979325078806</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4430820883495442</v>
+        <v>-0.4489837944285707</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3074798220607574</v>
+        <v>-0.3142206250112314</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1977654553754229</v>
+        <v>-0.2224457810851607</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4981837124023154</v>
+        <v>-0.4957518492732745</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.165830867372232</v>
+        <v>-0.153442993036218</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.003305708216958504</v>
+        <v>0.0007802721262781011</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2762027381211541</v>
+        <v>-0.2647769683100114</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2627845651090892</v>
+        <v>0.2562431363286072</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3501344651904564</v>
+        <v>0.349003896319038</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.04697992259654638</v>
+        <v>-0.05202762684592314</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.06092231307308146</v>
+        <v>-0.07537385941398504</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05999712919565565</v>
+        <v>0.05372600273801816</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.263326016315135</v>
+        <v>-0.2643459905497833</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-1.319760340917425</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-13.07357760253301</v>
+        <v>-13.07357760253302</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.743667162176139</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.674038158818798</v>
+        <v>-7.842797267740869</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.62198067533688</v>
+        <v>-8.207886253537866</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-26.73398063634026</v>
+        <v>-26.44512325136473</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.397959569320172</v>
+        <v>-5.85750236388615</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-10.39226951595693</v>
+        <v>-10.0406265733602</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-20.51274028322183</v>
+        <v>-19.93123469771309</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.398702236307803</v>
+        <v>-4.014566007018099</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.985636661097691</v>
+        <v>-7.163347856799371</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-21.78403794167779</v>
+        <v>-21.13787974295461</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.12941752967146</v>
+        <v>12.4619089687476</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.51288545751554</v>
+        <v>11.86740174287345</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-9.897332726741656</v>
+        <v>-11.30293494441077</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.63347572702883</v>
+        <v>11.83484831123885</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.165873386097467</v>
+        <v>6.813885923226193</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-6.602063495473777</v>
+        <v>-6.248236518298341</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.287165962314564</v>
+        <v>9.250710305710777</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.747213633755468</v>
+        <v>6.281527398930225</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-10.2141542345678</v>
+        <v>-10.90117680127989</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.04846182905242271</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4800640413524733</v>
+        <v>-0.4800640413524734</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.08346890601677914</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1510802216059329</v>
+        <v>-0.1751489029568692</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2000380728851695</v>
+        <v>-0.1872913194588853</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.617761313004153</v>
+        <v>-0.6112829942964143</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1871140728456745</v>
+        <v>-0.1894721141542497</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3177696628554837</v>
+        <v>-0.3098508982681827</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.624454974689743</v>
+        <v>-0.623951760056965</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1174703663891493</v>
+        <v>-0.1135532084380572</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1721846664116385</v>
+        <v>-0.1910946284976663</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5823086150796825</v>
+        <v>-0.5882552877494985</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3610156969458747</v>
+        <v>0.374324098222264</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3459169824006455</v>
+        <v>0.3491656654483804</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2907459084859813</v>
+        <v>-0.3171473495838588</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5041241312074377</v>
+        <v>0.5222684964569112</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3168346600983897</v>
+        <v>0.3134148000353238</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.299452669807613</v>
+        <v>-0.2670993889001312</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3107140156958498</v>
+        <v>0.317075901293798</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2281298107924796</v>
+        <v>0.2056999662926525</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3421980355006701</v>
+        <v>-0.3698226855535608</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.058776749557638</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-4.156344003160717</v>
+        <v>-4.156344003160725</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-6.952543276389717</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-23.50301660230027</v>
+        <v>-23.47818585475919</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-19.94143156801401</v>
+        <v>-20.20024090861655</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-25.15110583410632</v>
+        <v>-24.91414775205383</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.448781757827302</v>
+        <v>-5.980333273989095</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.552492088456103</v>
+        <v>-2.855369642387739</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.71552705782879</v>
+        <v>-10.85287586350919</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-12.86928667465301</v>
+        <v>-12.21705962673357</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-9.590627718246481</v>
+        <v>-9.58037390985314</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-15.78318384346788</v>
+        <v>-16.22802471003501</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-7.384903408703687</v>
+        <v>-5.706674345273725</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-2.497635009909526</v>
+        <v>-3.278011552552105</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-8.767829993997598</v>
+        <v>-9.356865413766052</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.48776261196579</v>
+        <v>8.501828969118536</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.40718885534257</v>
+        <v>11.46343789292004</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.017392544474707</v>
+        <v>1.681468306862032</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-1.014784495929464</v>
+        <v>-1.268868576388967</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.761846566384347</v>
+        <v>1.801156314752733</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-5.418915428549341</v>
+        <v>-6.061074230410139</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1788705251355514</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1831703196216408</v>
+        <v>-0.1831703196216412</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.2046362980895761</v>
@@ -1839,7 +1839,7 @@
         <v>-0.1147134076000099</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.3123748248321774</v>
+        <v>-0.3123748248321773</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.473593060009411</v>
+        <v>-0.4709481788369442</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4084814715345308</v>
+        <v>-0.4108275220967582</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5085977085184186</v>
+        <v>-0.5066607137814464</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2409976740076679</v>
+        <v>-0.2239847138890081</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1429816363479313</v>
+        <v>-0.1168834883499393</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3981332316221742</v>
+        <v>-0.4018546493784209</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3446742772915208</v>
+        <v>-0.3306347977647573</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2588599264311914</v>
+        <v>-0.2566562084820429</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4294602202545248</v>
+        <v>-0.4376948798445497</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.174490176430499</v>
+        <v>-0.1362597483509909</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.05722945528005956</v>
+        <v>-0.07920758096544411</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2145808546304789</v>
+        <v>-0.2257311998211653</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3823554057561058</v>
+        <v>0.442527129958656</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6206846520872513</v>
+        <v>0.6017566296817757</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1162897879379777</v>
+        <v>0.08814403773705191</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.03135743150983118</v>
+        <v>-0.03582434216848472</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.05641818096135164</v>
+        <v>0.06034363830759935</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.1724912590849985</v>
+        <v>-0.187261691674099</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-7.008691152004221</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-10.51056223573463</v>
+        <v>-10.51056223573464</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.070361177853458</v>
@@ -1939,7 +1939,7 @@
         <v>-0.1464123419322727</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-2.321341177350922</v>
+        <v>-2.321341177350927</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.860139121498089</v>
@@ -1948,7 +1948,7 @@
         <v>-3.530315364367087</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-6.367979257677014</v>
+        <v>-6.367979257677011</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.355203249417414</v>
+        <v>-4.054356392291207</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-12.02812553524716</v>
+        <v>-12.89827017659814</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-15.88657527199821</v>
+        <v>-15.67336535562493</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.037439944638082</v>
+        <v>-2.780678060232292</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.400364649186064</v>
+        <v>-5.127083622763795</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-7.106672158869463</v>
+        <v>-6.90808146877508</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.907687372421017</v>
+        <v>-2.181785328036635</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-7.152824175022364</v>
+        <v>-7.178373177929144</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-10.25424235401729</v>
+        <v>-10.16706590020054</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>7.165192189880646</v>
+        <v>6.978034755140984</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.759860202582682</v>
+        <v>-1.321620618609143</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-4.364963177606416</v>
+        <v>-4.76997072727835</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.510233051399992</v>
+        <v>7.003492955394594</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.298851258410394</v>
+        <v>4.663525026165078</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.990465333614602</v>
+        <v>1.859633476342308</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.380399751128893</v>
+        <v>5.384242168009711</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.2953024294251789</v>
+        <v>0.3083593316452455</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-3.205140496448986</v>
+        <v>-2.878755523776424</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.189314988566568</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.2839056431980589</v>
+        <v>-0.2839056431980591</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.0818917083626714</v>
@@ -2044,7 +2044,7 @@
         <v>-0.005791239197522308</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.09181904912986022</v>
+        <v>-0.09181904912986044</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.05992159467563957</v>
@@ -2053,7 +2053,7 @@
         <v>-0.113723819845485</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.2051349103792258</v>
+        <v>-0.2051349103792257</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.08376872355177782</v>
+        <v>-0.1037346624785807</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3045267740193774</v>
+        <v>-0.3266369383483955</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4027409548379956</v>
+        <v>-0.3985073681335506</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1133430159099933</v>
+        <v>-0.09993011547704454</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1964072798986476</v>
+        <v>-0.1844499749377334</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2591492850169765</v>
+        <v>-0.2496677178466954</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.05850335607489118</v>
+        <v>-0.06681210887865319</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2148105086131903</v>
+        <v>-0.2207168360664035</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3073377284274438</v>
+        <v>-0.3072617219844111</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.207922867846335</v>
+        <v>0.2069218072412722</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.05043654825923943</v>
+        <v>-0.03844243483363491</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1304115855164814</v>
+        <v>-0.1377703433390817</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3228777951348331</v>
+        <v>0.3062424529210812</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1895570495417387</v>
+        <v>0.1969111275608099</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.08726946034285038</v>
+        <v>0.08173721969910912</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1864054903092628</v>
+        <v>0.183792364295619</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.01071290769232594</v>
+        <v>0.01046955921480718</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1080438255129215</v>
+        <v>-0.09602561321551105</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-8.962398694082282</v>
+        <v>-9.094929576564361</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-11.96406707349735</v>
+        <v>-12.32036072545502</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-18.7011403130826</v>
+        <v>-18.56163435378019</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.494976855676645</v>
+        <v>-1.754333932035945</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.424296626821373</v>
+        <v>-0.9843719281101486</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-10.48001883105916</v>
+        <v>-10.15284991736674</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.21095479717513</v>
+        <v>-3.958025700065341</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-5.259269069088102</v>
+        <v>-5.12283817719192</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-13.15240825921385</v>
+        <v>-13.23269680930538</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.7760329597435935</v>
+        <v>1.084386541991926</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.915138544236068</v>
+        <v>-1.902228997529755</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-8.525753426373781</v>
+        <v>-8.787247940024359</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.241475263178171</v>
+        <v>6.419269426679411</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>7.514450597277264</v>
+        <v>7.437253007071849</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-2.304283170803429</v>
+        <v>-3.000163352295397</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.247946866032562</v>
+        <v>2.381546781249988</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.350929536455088</v>
+        <v>1.446715040916526</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-6.367415410025911</v>
+        <v>-7.002924585193444</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.1783629664881209</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.3402254072017908</v>
+        <v>-0.340225407201791</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.10941770940255</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2121982613035223</v>
+        <v>-0.2147878384929474</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.285231127717744</v>
+        <v>-0.2915443423637349</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4359258780576989</v>
+        <v>-0.4385566943243078</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.09430315250855868</v>
+        <v>-0.06943955872691474</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.05863723344563673</v>
+        <v>-0.04098087867590268</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.4127057885424583</v>
+        <v>-0.4105326787324667</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1290829481873671</v>
+        <v>-0.1205725584930046</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1593690616129704</v>
+        <v>-0.1594918935031659</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.4042119097556562</v>
+        <v>-0.4045223244357251</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.01900028371766778</v>
+        <v>0.02755052585730199</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.05305409321516947</v>
+        <v>-0.05257097950307853</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.2316885531821206</v>
+        <v>-0.2321091163764695</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3582873194406346</v>
+        <v>0.3109446192753737</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3561205046079431</v>
+        <v>0.3616054274507456</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1143791357165818</v>
+        <v>-0.1413796999299435</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.07643249960256195</v>
+        <v>0.08025468448224927</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.0443831679679069</v>
+        <v>0.04725950614153979</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.220205578065262</v>
+        <v>-0.2350807912940236</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>1.494963723177631</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-5.603085487523388</v>
+        <v>-5.603085487523391</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-0.2670084913261761</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-5.414252922352635</v>
+        <v>-5.171987921501421</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-7.448102782316404</v>
+        <v>-7.721625595673422</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-16.67467052838833</v>
+        <v>-16.7226509001654</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.3602698597175339</v>
+        <v>0.2382013832761705</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.4276623887491934</v>
+        <v>-0.597678847421522</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-7.421394668145116</v>
+        <v>-7.396430383110444</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-1.903332207922321</v>
+        <v>-1.688973150392753</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-3.342778083340803</v>
+        <v>-3.333045952978224</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-11.55955553717973</v>
+        <v>-11.46081330653588</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.2890551987064887</v>
+        <v>-0.4828686019093945</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-2.579823173664525</v>
+        <v>-2.826496793014096</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-11.79249384426623</v>
+        <v>-11.91113814128012</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.568542311031294</v>
+        <v>4.621692201387243</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.599771950731372</v>
+        <v>3.622247922529163</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-3.920621589194582</v>
+        <v>-3.622332102191888</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.308260799023985</v>
+        <v>1.541877780632495</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.1159448982259241</v>
+        <v>-0.1117203310826634</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-8.443958743070274</v>
+        <v>-8.323907493153246</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.06087920517014854</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.2281736912356417</v>
+        <v>-0.2281736912356418</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.008322280841249842</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1322788032389689</v>
+        <v>-0.1268351631812414</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1814779541941129</v>
+        <v>-0.1881613236528506</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.407176830621324</v>
+        <v>-0.4070420966549698</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.0132960547760282</v>
+        <v>0.004871034171574634</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.01761737833156777</v>
+        <v>-0.02401490248884324</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.2903065700996634</v>
+        <v>-0.2872726580671409</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.05742126632718177</v>
+        <v>-0.05169854460821187</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1024737351599001</v>
+        <v>-0.1017491324306912</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.3508804504571281</v>
+        <v>-0.3482086425391034</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.007415839725262347</v>
+        <v>-0.01323155312245238</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.06705735873834366</v>
+        <v>-0.07253288266758888</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.3040564684022156</v>
+        <v>-0.3083139635364441</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1917197328269994</v>
+        <v>0.1943010799680105</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1528721663325688</v>
+        <v>0.153212019988407</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.1658065909965252</v>
+        <v>-0.1537880558020014</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.04223976960359416</v>
+        <v>0.04835559981049951</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.003653368331310658</v>
+        <v>-0.003078655220763787</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.2702937914548977</v>
+        <v>-0.2654637955072683</v>
       </c>
     </row>
     <row r="58">
